--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_19.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1117829.467727759</v>
+        <v>1117829.467727758</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>93100.95025700922</v>
+        <v>100134.6943535189</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728811</v>
+        <v>9102620.618728815</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>138.3038958997682</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -713,16 +713,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>155.945238196831</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>134.6751203255734</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>217.5699682789832</v>
       </c>
       <c r="F5" t="n">
-        <v>62.35210205767352</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883154</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>155.3197306044664</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>38.39834678541102</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.925119512543551</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>104.5113366705979</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T9" t="n">
-        <v>196.889762398448</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U9" t="n">
         <v>225.8879277888686</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.37682225755638</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1309,10 +1309,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>52.10844059186253</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>300.0637955063308</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1424,16 +1424,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.1485339723819</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1534,22 +1534,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>169.0167291702124</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>144.2025636820401</v>
+        <v>95.09774413911198</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1807,19 +1807,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>169.0167291702124</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>276.5738466213014</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>68.11319564821194</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1938,10 +1938,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -1989,7 +1989,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773045</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>80.74987568070269</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>117.5242961642341</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2090,13 +2090,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>26.94389492651069</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,28 +2126,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>125.042956187001</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2208,7 +2208,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T21" t="n">
         <v>196.8897623984489</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>62.56386682245574</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>140.1425501084454</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2327,10 +2327,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>323.9918595228957</v>
+        <v>364.6691672732546</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2375,10 +2375,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2400,7 +2400,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646389</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2415,7 +2415,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>60.52849267329272</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>213.6743229269899</v>
       </c>
     </row>
     <row r="26">
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>89.30418374625647</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2609,19 +2609,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>269.5134569480837</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>56.8819698781575</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,10 +2770,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>29.4750245876584</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>116.3822385351992</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2837,28 +2837,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>334.5817096732201</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -2953,22 +2953,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>141.323609172981</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>91.77680754856932</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3035,13 +3035,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>376.184863643924</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3083,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>93.46210168103352</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3187,10 +3187,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,19 +3235,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.272045986318</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>58.20873246089272</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3478,19 +3478,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>323.9918595228955</v>
+        <v>279.9387901805692</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3703,28 +3703,28 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>119.5125823915305</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,10 +3740,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>275.4805812731078</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>290.0035889091394</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3800,10 +3800,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3837,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>4.553842565068351</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>16.1436521215674</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>296.4707258986737</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,28 +4022,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>338.7976832178808</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4138,13 +4138,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>60.1845074958166</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>54.47555601903363</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2247.308246834948</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
         <v>1363.553390680693</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2089.787804211887</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2089.787804211887</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1737.019148941773</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834948</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y2" t="n">
-        <v>2247.308246834948</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,16 +4434,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816298</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="F4" t="n">
         <v>562.6765899837194</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1229.941371236148</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C5" t="n">
-        <v>860.9788542957365</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D5" t="n">
-        <v>502.713155688986</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E5" t="n">
-        <v>116.9249030907417</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>53.94298182036444</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1620.08070321196</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>1229.941371236148</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598704</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.5654064942401</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="C7" t="n">
-        <v>550.5654064942401</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="D7" t="n">
-        <v>550.5654064942401</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="E7" t="n">
-        <v>550.5654064942401</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="F7" t="n">
-        <v>550.5654064942401</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220518</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942401</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942401</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.5654064942401</v>
+        <v>138.3857151273827</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2476.569858826099</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2478.514423990285</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2478.514423990285</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>2478.514423990285</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>2478.514423990285</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4911,13 +4911,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4945,22 +4945,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816298</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837194</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220518</v>
+        <v>264.3261428644631</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>106.5777702969933</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1666.64813361638</v>
+        <v>808.6937513590203</v>
       </c>
       <c r="C11" t="n">
-        <v>1666.64813361638</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="D11" t="n">
-        <v>1666.64813361638</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E11" t="n">
-        <v>1363.553390680693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5042,16 +5042,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5063,28 +5063,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V11" t="n">
-        <v>2443.387305656314</v>
+        <v>2311.667336930148</v>
       </c>
       <c r="W11" t="n">
-        <v>2443.387305656314</v>
+        <v>1958.898681660034</v>
       </c>
       <c r="X11" t="n">
-        <v>2443.387305656314</v>
+        <v>1585.432923398954</v>
       </c>
       <c r="Y11" t="n">
-        <v>2053.247973680502</v>
+        <v>1195.293591423142</v>
       </c>
     </row>
     <row r="12">
@@ -5109,10 +5109,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
@@ -5124,16 +5124,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
         <v>2525.076107152626</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5224,25 +5224,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1877.070485994673</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C14" t="n">
-        <v>1508.107969054261</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="D14" t="n">
-        <v>1149.842270447511</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="E14" t="n">
-        <v>764.0540178492663</v>
+        <v>560.9872140232164</v>
       </c>
       <c r="F14" t="n">
-        <v>353.0681130596587</v>
+        <v>150.0013092336089</v>
       </c>
       <c r="G14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U14" t="n">
-        <v>2267.209817970484</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V14" t="n">
-        <v>2267.209817970484</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W14" t="n">
-        <v>2267.209817970484</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X14" t="n">
-        <v>2267.209817970484</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y14" t="n">
-        <v>1877.070485994673</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5455,31 +5455,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S16" t="n">
-        <v>513.8405610245969</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T16" t="n">
-        <v>343.1165921657965</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>850.7171392082163</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C17" t="n">
-        <v>850.7171392082163</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D17" t="n">
-        <v>850.7171392082163</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E17" t="n">
         <v>464.928886609972</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5528,37 +5528,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.514423990286</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.752638628377</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V17" t="n">
-        <v>1893.689751284806</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W17" t="n">
-        <v>1614.322229445108</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X17" t="n">
-        <v>1240.856471184028</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y17" t="n">
-        <v>850.7171392082163</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
         <v>2188.831293537797</v>
@@ -5613,22 +5613,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>473.4444960005477</v>
+        <v>477.9194859165262</v>
       </c>
       <c r="C19" t="n">
-        <v>304.5083130726408</v>
+        <v>308.9833029886194</v>
       </c>
       <c r="D19" t="n">
-        <v>304.5083130726408</v>
+        <v>308.9833029886194</v>
       </c>
       <c r="E19" t="n">
-        <v>304.5083130726408</v>
+        <v>308.9833029886194</v>
       </c>
       <c r="F19" t="n">
-        <v>222.942782082032</v>
+        <v>308.9833029886194</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036446</v>
+        <v>308.9833029886194</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5680,7 +5680,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
         <v>529.6040388502502</v>
@@ -5689,34 +5689,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V19" t="n">
-        <v>473.4444960005477</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W19" t="n">
-        <v>473.4444960005477</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X19" t="n">
-        <v>473.4444960005477</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y19" t="n">
-        <v>473.4444960005477</v>
+        <v>477.9194859165262</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1536.177557778964</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C20" t="n">
-        <v>1536.177557778964</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D20" t="n">
-        <v>1177.911859172214</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E20" t="n">
-        <v>792.1236065739693</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="F20" t="n">
-        <v>381.1377017843616</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>1993.546461473041</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>1536.177557778964</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X20" t="n">
-        <v>1536.177557778964</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y20" t="n">
-        <v>1536.177557778964</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
@@ -5835,25 +5835,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>773.5003462121382</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
         <v>2488.762748073964</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>728.1289842064343</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C22" t="n">
-        <v>728.1289842064343</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="D22" t="n">
-        <v>728.1289842064343</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="E22" t="n">
-        <v>580.2158906240412</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="F22" t="n">
-        <v>517.0200655508536</v>
+        <v>353.2494858105065</v>
       </c>
       <c r="G22" t="n">
-        <v>348.0202652891861</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H22" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5917,43 +5917,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X22" t="n">
-        <v>728.1289842064343</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y22" t="n">
-        <v>728.1289842064343</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1546.94416071721</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C23" t="n">
-        <v>1177.981643776798</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="D23" t="n">
-        <v>1177.981643776798</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="E23" t="n">
-        <v>792.1933911785536</v>
+        <v>422.2956760357732</v>
       </c>
       <c r="F23" t="n">
-        <v>381.2074863889461</v>
+        <v>422.2956760357732</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018223</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018223</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X23" t="n">
-        <v>2323.683332757143</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y23" t="n">
-        <v>1933.544000781331</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="24">
@@ -6042,67 +6042,67 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6111,7 +6111,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2180.711461199623</v>
+        <v>2191.89927156006</v>
       </c>
       <c r="C25" t="n">
-        <v>2180.711461199623</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D25" t="n">
-        <v>2180.711461199623</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E25" t="n">
-        <v>2180.711461199623</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F25" t="n">
-        <v>2180.711461199623</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G25" t="n">
-        <v>2180.711461199623</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H25" t="n">
         <v>2022.963088632153</v>
@@ -6151,46 +6151,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T25" t="n">
-        <v>2469.840903686825</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U25" t="n">
-        <v>2469.840903686825</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V25" t="n">
-        <v>2408.70101209764</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W25" t="n">
-        <v>2408.70101209764</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X25" t="n">
-        <v>2180.711461199623</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="Y25" t="n">
-        <v>2180.711461199623</v>
+        <v>2191.89927156006</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1219.679656148628</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="C26" t="n">
-        <v>850.7171392082163</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="D26" t="n">
-        <v>850.7171392082163</v>
+        <v>1358.887193518369</v>
       </c>
       <c r="E26" t="n">
-        <v>464.928886609972</v>
+        <v>973.098940920125</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036446</v>
+        <v>562.1130361305175</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>144.1492280287043</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>144.1492280287043</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V26" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W26" t="n">
-        <v>2369.884586449642</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X26" t="n">
-        <v>1996.418828188562</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y26" t="n">
-        <v>1606.27949621275</v>
+        <v>1717.15289212512</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
@@ -6324,22 +6324,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2191.89927156006</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C28" t="n">
         <v>2022.963088632153</v>
@@ -6388,46 +6388,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018223</v>
+        <v>2639.69255578776</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018223</v>
+        <v>2425.404132605923</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018223</v>
+        <v>2425.404132605923</v>
       </c>
       <c r="U28" t="n">
-        <v>2697.149091018223</v>
+        <v>2425.404132605923</v>
       </c>
       <c r="V28" t="n">
-        <v>2442.464602812336</v>
+        <v>2425.404132605923</v>
       </c>
       <c r="W28" t="n">
-        <v>2412.69185070359</v>
+        <v>2425.404132605923</v>
       </c>
       <c r="X28" t="n">
-        <v>2412.69185070359</v>
+        <v>2425.404132605923</v>
       </c>
       <c r="Y28" t="n">
-        <v>2191.89927156006</v>
+        <v>2204.611553462393</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1309.714918859356</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="C29" t="n">
-        <v>940.7524019189439</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D29" t="n">
-        <v>582.4867033121934</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E29" t="n">
         <v>464.928886609972</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U29" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V29" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W29" t="n">
-        <v>1309.714918859356</v>
+        <v>2359.18776811598</v>
       </c>
       <c r="X29" t="n">
-        <v>1309.714918859356</v>
+        <v>1985.7220098549</v>
       </c>
       <c r="Y29" t="n">
-        <v>1309.714918859356</v>
+        <v>1595.582677879089</v>
       </c>
     </row>
     <row r="30">
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
         <v>814.0449459359563</v>
@@ -6537,22 +6537,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
         <v>2188.831293537797</v>
@@ -6561,22 +6561,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>487.2784796319623</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="C31" t="n">
-        <v>487.2784796319623</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="D31" t="n">
-        <v>337.1618402196266</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="E31" t="n">
-        <v>337.1618402196266</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="F31" t="n">
-        <v>190.2718927217162</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="G31" t="n">
-        <v>190.2718927217162</v>
+        <v>2165.714209008902</v>
       </c>
       <c r="H31" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K31" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R31" t="n">
-        <v>579.9823256406182</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="S31" t="n">
-        <v>579.9823256406182</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="T31" t="n">
-        <v>487.2784796319623</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="U31" t="n">
-        <v>487.2784796319623</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="V31" t="n">
-        <v>487.2784796319623</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="W31" t="n">
-        <v>487.2784796319623</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="X31" t="n">
-        <v>487.2784796319623</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="Y31" t="n">
-        <v>487.2784796319623</v>
+        <v>2334.714009270569</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1610.120910258947</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C32" t="n">
-        <v>1241.158393318536</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D32" t="n">
-        <v>882.8926947117852</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E32" t="n">
-        <v>882.8926947117852</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>2057.295728843237</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W32" t="n">
-        <v>1704.527073573123</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X32" t="n">
-        <v>1610.120910258947</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y32" t="n">
-        <v>1610.120910258947</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="33">
@@ -6753,67 +6753,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>541.9956044222747</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C34" t="n">
-        <v>373.0594214943678</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>222.942782082032</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>222.942782082032</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>222.942782082032</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S34" t="n">
-        <v>541.9956044222747</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T34" t="n">
-        <v>541.9956044222747</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U34" t="n">
-        <v>541.9956044222747</v>
+        <v>2567.064746875</v>
       </c>
       <c r="V34" t="n">
-        <v>541.9956044222747</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W34" t="n">
-        <v>541.9956044222747</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X34" t="n">
-        <v>541.9956044222747</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y34" t="n">
-        <v>541.9956044222747</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1912.117978031581</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C35" t="n">
-        <v>1543.155461091169</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D35" t="n">
-        <v>1184.889762484419</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E35" t="n">
-        <v>799.1015098861748</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F35" t="n">
-        <v>799.1015098861748</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
         <v>53.94298182036445</v>
@@ -6971,16 +6971,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2638.352391562775</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>2285.583736292661</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X35" t="n">
-        <v>1912.117978031581</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y35" t="n">
-        <v>1912.117978031581</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
@@ -7017,40 +7017,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7126,16 +7126,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>571.3497027553424</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W37" t="n">
-        <v>281.9325327183818</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y37" t="n">
         <v>53.94298182036445</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1546.944160717209</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C38" t="n">
-        <v>1177.981643776797</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D38" t="n">
-        <v>850.7171392082162</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036445</v>
@@ -7172,13 +7172,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7214,10 +7214,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.683332757143</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y38" t="n">
-        <v>1933.544000781331</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="39">
@@ -7263,13 +7263,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>201.8560754027576</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>201.8560754027576</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
-        <v>201.8560754027576</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R40" t="n">
-        <v>550.5654064942401</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S40" t="n">
-        <v>429.8456263007749</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T40" t="n">
-        <v>429.8456263007749</v>
+        <v>2567.064746875</v>
       </c>
       <c r="U40" t="n">
-        <v>429.8456263007749</v>
+        <v>2567.064746875</v>
       </c>
       <c r="V40" t="n">
-        <v>429.8456263007749</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W40" t="n">
-        <v>429.8456263007749</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X40" t="n">
-        <v>201.8560754027576</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y40" t="n">
-        <v>201.8560754027576</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1512.612574238668</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C41" t="n">
-        <v>1143.650057298256</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="D41" t="n">
-        <v>1143.650057298256</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E41" t="n">
-        <v>757.8618047000118</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>346.8758999104043</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036445</v>
@@ -7409,13 +7409,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7433,28 +7433,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>2289.351746278601</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X41" t="n">
-        <v>2289.351746278601</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y41" t="n">
-        <v>1899.21241430279</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
@@ -7500,31 +7500,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>201.8560754027576</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C43" t="n">
-        <v>201.8560754027576</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D43" t="n">
-        <v>201.8560754027576</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K43" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="T43" t="n">
-        <v>711.8222648917197</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="U43" t="n">
-        <v>422.6486545462877</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="V43" t="n">
-        <v>422.6486545462877</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="W43" t="n">
-        <v>422.6486545462877</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="X43" t="n">
-        <v>422.6486545462877</v>
+        <v>2027.562929606969</v>
       </c>
       <c r="Y43" t="n">
-        <v>201.8560754027576</v>
+        <v>2027.562929606969</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1241.158393318536</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="C44" t="n">
-        <v>1241.158393318536</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D44" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036445</v>
@@ -7670,28 +7670,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2267.209817970484</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>1936.146930626913</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>1583.378275356799</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>1241.158393318536</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y44" t="n">
-        <v>1241.158393318536</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="45">
@@ -7725,22 +7725,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
         <v>2525.076107152626</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F46" t="n">
         <v>53.94298182036445</v>
@@ -7828,28 +7828,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R46" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S46" t="n">
-        <v>336.2769833124028</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T46" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U46" t="n">
-        <v>53.94298182036445</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V46" t="n">
-        <v>53.94298182036445</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036445</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>409.5384547146241</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142006</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>327.421860962789</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9255,7 +9255,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>274.4264991783517</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9492,7 +9492,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>194.3570488013782</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11391,7 +11391,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22547,13 +22547,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>226.9689958712394</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22601,16 +22601,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>95.27892931145828</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22711,10 +22711,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>10.74592769735787</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -22781,7 +22781,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22790,19 +22790,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>164.3604017932786</v>
       </c>
       <c r="F5" t="n">
-        <v>344.5239436840379</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,16 +22829,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22847,10 +22847,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22954,13 +22954,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>11.99007165458451</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.5672750069272</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22984,16 +22984,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -23018,28 +23018,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>380.808722150937</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>47.41997957426331</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,28 +23066,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23151,7 +23151,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23185,7 +23185,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890128</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23197,10 +23197,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>82.85718120047571</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,7 +23221,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>81.86657456593099</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23312,16 +23312,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0.6037244977529781</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,22 +23422,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23458,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>56.01837628787189</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>269.5816063387549</v>
+        <v>318.686425881683</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23558,7 +23558,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23695,19 +23695,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>56.01837628787189</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23729,13 +23729,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23786,16 +23786,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>72.66712209611165</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>301.6179050302571</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23899,19 +23899,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>64.67117234222856</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>38.64659267756103</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,7 +23932,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801578</v>
@@ -23947,7 +23947,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>296.9788778378464</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>224.198012530412</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>82.85718120047551</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>27.16725215060546</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
         <v>45.199959188537</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24206,7 +24206,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24215,10 +24215,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>89.79231049789928</v>
+        <v>49.11500274754036</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24263,10 +24263,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24379,7 +24379,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
@@ -24415,22 +24415,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>191.6091506505353</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>4.91033042510486</v>
       </c>
     </row>
     <row r="26">
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,13 +24455,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>62.62713249860478</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24497,19 +24497,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>79.72751176932934</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24646,10 +24646,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>89.78322210200037</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
@@ -24658,10 +24658,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>257.0479737489326</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,16 +24677,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>265.5481315370625</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24725,28 +24725,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>14.65925904419294</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24841,22 +24841,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>14.84727966881411</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
         <v>45.199959188537</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>133.258297909515</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24923,13 +24923,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>37.59930637687103</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24971,19 +24971,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>276.2689989974355</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25075,10 +25075,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25123,19 +25123,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>27.8734929637009</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,25 +25151,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25211,16 +25211,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>269.5435260092422</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25366,19 +25366,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>131.0703856053968</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>89.80115265030472</v>
       </c>
     </row>
     <row r="38">
@@ -25394,7 +25394,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>30.69118209778748</v>
+        <v>74.74425144011371</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25403,7 +25403,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25454,7 +25454,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25591,28 +25591,28 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>92.63295655848844</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>96.2516047562944</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25628,10 +25628,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>79.2024603475752</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>123.7805811116556</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25688,10 +25688,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>175.2781376168689</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25792,7 +25792,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25834,13 +25834,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>208.8914533365169</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,10 +25849,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25862,13 +25862,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>86.26311576480691</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25910,28 +25910,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>30.93341746058826</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,13 +26026,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>88.43096552239575</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>231.8063182229441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.1555401824</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.155540182</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.155540182</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
   </sheetData>
@@ -26314,34 +26314,34 @@
         <v>274694.9795149697</v>
       </c>
       <c r="C2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="D2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="E2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="F2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="G2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="H2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="I2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="J2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="K2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="L2" t="n">
         <v>274694.9795149696</v>
-      </c>
-      <c r="K2" t="n">
-        <v>274694.9795149698</v>
-      </c>
-      <c r="L2" t="n">
-        <v>274694.9795149698</v>
       </c>
       <c r="M2" t="n">
         <v>274694.9795149696</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26430,10 +26430,10 @@
         <v>513.1084990597035</v>
       </c>
       <c r="G4" t="n">
+        <v>513.1084990597035</v>
+      </c>
+      <c r="H4" t="n">
         <v>513.1084990597036</v>
-      </c>
-      <c r="H4" t="n">
-        <v>513.1084990597035</v>
       </c>
       <c r="I4" t="n">
         <v>513.1084990597035</v>
@@ -26479,25 +26479,25 @@
         <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="G5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="H5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="I5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="J5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="K5" t="n">
         <v>49231.47806340947</v>
       </c>
-      <c r="G5" t="n">
-        <v>49231.47806340948</v>
-      </c>
-      <c r="H5" t="n">
-        <v>49231.47806340947</v>
-      </c>
-      <c r="I5" t="n">
-        <v>49231.47806340947</v>
-      </c>
-      <c r="J5" t="n">
-        <v>49231.47806340947</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>49231.47806340946</v>
-      </c>
-      <c r="L5" t="n">
-        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-398645.0862620439</v>
+        <v>-398645.0862620438</v>
       </c>
       <c r="C6" t="n">
+        <v>191322.7929525007</v>
+      </c>
+      <c r="D6" t="n">
         <v>191322.7929525005</v>
       </c>
-      <c r="D6" t="n">
-        <v>191322.7929525006</v>
-      </c>
       <c r="E6" t="n">
-        <v>224950.3929525007</v>
+        <v>224950.3929525005</v>
       </c>
       <c r="F6" t="n">
-        <v>224950.3929525008</v>
+        <v>224950.3929525006</v>
       </c>
       <c r="G6" t="n">
+        <v>224950.3929525004</v>
+      </c>
+      <c r="H6" t="n">
         <v>224950.3929525006</v>
       </c>
-      <c r="H6" t="n">
-        <v>224950.3929525007</v>
-      </c>
       <c r="I6" t="n">
+        <v>224950.3929525005</v>
+      </c>
+      <c r="J6" t="n">
+        <v>48527.17375990763</v>
+      </c>
+      <c r="K6" t="n">
         <v>224950.3929525006</v>
       </c>
-      <c r="J6" t="n">
-        <v>48527.17375990751</v>
-      </c>
-      <c r="K6" t="n">
-        <v>224950.3929525007</v>
-      </c>
       <c r="L6" t="n">
-        <v>224950.3929525006</v>
+        <v>224950.3929525004</v>
       </c>
       <c r="M6" t="n">
         <v>224950.3929525004</v>
@@ -26750,7 +26750,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170866</v>
@@ -26790,34 +26790,34 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="G4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="H4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="I4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="K4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="G4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="H4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="I4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="L4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -31127,13 +31127,13 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>132.99849770713</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,22 +31355,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,13 +31750,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31774,22 +31774,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,22 +31829,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>56.98116194942315</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
         <v>205.8702969983122</v>
@@ -31856,22 +31856,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,13 +31932,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31947,7 +31947,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31996,7 +31996,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727438</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
         <v>193.1674799081577</v>
@@ -32075,7 +32075,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32096,7 +32096,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R15" t="n">
         <v>50.44659727034981</v>
@@ -32230,7 +32230,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32239,34 +32239,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,40 +32303,40 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
@@ -32345,7 +32345,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,25 +32406,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32555,7 +32555,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L21" t="n">
-        <v>176.4169820478007</v>
+        <v>160.6967431133295</v>
       </c>
       <c r="M21" t="n">
         <v>205.8702969983122</v>
@@ -32570,7 +32570,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>50.44659727034982</v>
@@ -32789,7 +32789,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L24" t="n">
         <v>176.4169820478007</v>
@@ -33044,7 +33044,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
         <v>50.44659727034982</v>
@@ -33260,7 +33260,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33275,7 +33275,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O30" t="n">
-        <v>149.8971812516338</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
         <v>155.1528646479577</v>
@@ -33913,7 +33913,7 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
         <v>95.39071536633797</v>
@@ -33971,7 +33971,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33983,7 +33983,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N39" t="n">
-        <v>211.31907117367</v>
+        <v>167.9005868329995</v>
       </c>
       <c r="O39" t="n">
         <v>193.3156655923047</v>
@@ -33992,7 +33992,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
-        <v>60.29709682323596</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
         <v>50.44659727034982</v>
@@ -34138,7 +34138,7 @@
         <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34220,7 +34220,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N42" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O42" t="n">
         <v>193.3156655923047</v>
@@ -34229,7 +34229,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
         <v>50.44659727034982</v>
@@ -34445,7 +34445,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34457,7 +34457,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N45" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O45" t="n">
         <v>193.3156655923047</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047518</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35422,10 +35422,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
         <v>529.4413268262938</v>
@@ -35501,10 +35501,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35583,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
         <v>297.2230414343419</v>
@@ -35729,7 +35729,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
         <v>529.4413268262938</v>
@@ -35744,7 +35744,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35887,22 +35887,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031299</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
         <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735647</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36054,10 +36054,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713857</v>
+        <v>392.9827086369145</v>
       </c>
       <c r="M21" t="n">
         <v>529.4413268262938</v>
@@ -36212,13 +36212,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36455,7 +36455,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
@@ -36923,7 +36923,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K32" t="n">
         <v>297.2230414343419</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37166,7 +37166,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37403,7 +37403,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37640,7 +37640,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N41" t="n">
         <v>478.8956552492236</v>
@@ -37868,7 +37868,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -37877,7 +37877,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38105,13 +38105,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1117829.467727758</v>
+        <v>1146673.778482486</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100134.6943535189</v>
+        <v>120852.7288742639</v>
       </c>
     </row>
     <row r="8">
@@ -665,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>355.0453786996758</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>155.945238196831</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -896,16 +898,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>217.5699682789832</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>44.23232925006944</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>196.889762398448</v>
       </c>
       <c r="U6" t="n">
         <v>225.8879277888686</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>38.39834678541102</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -1108,7 +1110,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>54.47555601903365</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>43.95772706122981</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>104.5113366705979</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250796</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T9" t="n">
-        <v>196.8897623984489</v>
+        <v>196.889762398448</v>
       </c>
       <c r="U9" t="n">
         <v>225.8879277888686</v>
@@ -1294,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>62.56386682245552</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -1309,7 +1311,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>52.10844059186253</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1373,16 +1375,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>376.0368885193218</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1415,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1427,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.1485339723819</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1534,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.3768222575565</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,10 +1548,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1607,25 +1609,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>95.09774413911198</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,16 +1660,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>203.8041879340259</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1807,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -1819,7 +1821,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>54.47555601903363</v>
+        <v>230.2634979541059</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>68.63267763385602</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>68.11319564821194</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>117.5242961642341</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2044,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2062,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>26.94389492651069</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>266.5264354350421</v>
       </c>
     </row>
     <row r="21">
@@ -2208,7 +2210,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T21" t="n">
         <v>196.8897623984489</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>140.1425501084454</v>
+        <v>10.43941339835971</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2327,10 +2329,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>364.6691672732546</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2375,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2415,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>190.271393580297</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.6743229269899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>269.513456948084</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>89.30418374625647</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2609,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>56.8819698781575</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2852,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>334.5817096732201</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2962,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>141.323609172981</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3029,22 +3031,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>132.0879172811407</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>376.184863643924</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3092,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>43.31785343913998</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3241,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,19 +3268,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3326,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>31.80118679221686</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>36.78424627109351</v>
       </c>
       <c r="Y37" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3506,10 +3508,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>279.9387901805692</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3548,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>41.70146860294857</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3667,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>131.8179123113437</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>275.4805812731078</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>1.595867353580288</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.553842565068351</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3904,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3958,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>76.71587097450784</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>296.4707258986737</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>325.9224346137729</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4138,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>60.1845074958166</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4177,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>89.30725745073094</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1722.185086336931</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1722.185086336931</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1722.185086336931</v>
       </c>
       <c r="E2" t="n">
         <v>1363.553390680693</v>
@@ -4325,7 +4327,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4334,7 +4336,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2089.787804211887</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V2" t="n">
-        <v>2089.787804211887</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>1737.019148941773</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X2" t="n">
-        <v>1363.553390680693</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.553390680693</v>
+        <v>1722.185086336931</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4419,31 +4421,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4483,10 +4485,10 @@
         <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2310.5492509541</v>
+        <v>997.2466063457007</v>
       </c>
       <c r="C5" t="n">
-        <v>1941.586734013689</v>
+        <v>997.2466063457007</v>
       </c>
       <c r="D5" t="n">
-        <v>1583.321035406938</v>
+        <v>997.2466063457007</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>997.2466063457007</v>
       </c>
       <c r="F5" t="n">
         <v>952.5674858910851</v>
@@ -4562,22 +4564,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4597,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018222</v>
+        <v>1773.985778385634</v>
       </c>
       <c r="Y5" t="n">
-        <v>2697.149091018222</v>
+        <v>1383.846446409822</v>
       </c>
     </row>
     <row r="6">
@@ -4620,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
         <v>814.0449459359563</v>
@@ -4641,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4674,13 +4676,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.712065060056</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587809</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>138.3857151273827</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U7" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="V7" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W7" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X7" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>159.5099885583422</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C8" t="n">
-        <v>159.5099885583422</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>159.5099885583422</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>159.5099885583422</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>159.5099885583422</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>159.5099885583422</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>159.5099885583422</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4808,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982757</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="Y8" t="n">
-        <v>546.109828622464</v>
+        <v>2520.971603332392</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P9" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4911,13 +4913,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064342</v>
+        <v>664.9331591332467</v>
       </c>
       <c r="E10" t="n">
-        <v>580.2158906240411</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F10" t="n">
-        <v>433.3259431261307</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G10" t="n">
-        <v>264.3261428644631</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H10" t="n">
-        <v>106.5777702969933</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>808.6937513590203</v>
+        <v>1957.780595683986</v>
       </c>
       <c r="C11" t="n">
-        <v>439.7312344186087</v>
+        <v>1588.818078743575</v>
       </c>
       <c r="D11" t="n">
-        <v>439.7312344186087</v>
+        <v>1230.552380136824</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036445</v>
+        <v>844.7641275385799</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036445</v>
+        <v>433.7782227489724</v>
       </c>
       <c r="G11" t="n">
         <v>53.94298182036445</v>
@@ -5045,7 +5047,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5063,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>2311.667336930148</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>1958.898681660034</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X11" t="n">
-        <v>1585.432923398954</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y11" t="n">
-        <v>1195.293591423142</v>
+        <v>2344.380435748108</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
@@ -5118,22 +5120,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
         <v>2525.076107152626</v>
@@ -5142,19 +5144,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5182,13 +5184,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816297</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837193</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H13" t="n">
         <v>235.9284171545819</v>
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1315.737983561872</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="C14" t="n">
-        <v>946.7754666214607</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="D14" t="n">
-        <v>946.7754666214607</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E14" t="n">
-        <v>560.9872140232164</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F14" t="n">
-        <v>150.0013092336089</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
@@ -5306,22 +5308,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2465.942913862886</v>
+        <v>2041.445430739973</v>
       </c>
       <c r="V14" t="n">
-        <v>2465.942913862886</v>
+        <v>1710.382543396402</v>
       </c>
       <c r="W14" t="n">
-        <v>2465.942913862886</v>
+        <v>1357.613888126288</v>
       </c>
       <c r="X14" t="n">
-        <v>2092.477155601806</v>
+        <v>984.1481298652084</v>
       </c>
       <c r="Y14" t="n">
-        <v>1702.337823625994</v>
+        <v>594.0087978893966</v>
       </c>
     </row>
     <row r="15">
@@ -5455,16 +5457,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124028</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810045</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U16" t="n">
         <v>53.94298182036445</v>
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1577.945354755378</v>
+        <v>1553.852279424831</v>
       </c>
       <c r="C17" t="n">
-        <v>1208.982837814967</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="D17" t="n">
-        <v>850.7171392082162</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="E17" t="n">
-        <v>464.928886609972</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5513,13 +5515,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5531,34 +5533,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
+        <v>2697.149091018223</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2697.149091018223</v>
+      </c>
+      <c r="S17" t="n">
         <v>2697.149091018222</v>
       </c>
-      <c r="R17" t="n">
-        <v>2642.120401548716</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2642.120401548716</v>
-      </c>
       <c r="T17" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2423.485734520778</v>
+        <v>2627.823154014327</v>
       </c>
       <c r="V17" t="n">
-        <v>2423.485734520778</v>
+        <v>2296.760266670757</v>
       </c>
       <c r="W17" t="n">
-        <v>2423.485734520778</v>
+        <v>1943.991611400642</v>
       </c>
       <c r="X17" t="n">
-        <v>2354.684526795312</v>
+        <v>1943.991611400642</v>
       </c>
       <c r="Y17" t="n">
-        <v>1964.5451948195</v>
+        <v>1553.852279424831</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
@@ -5595,22 +5597,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5631,10 +5633,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>477.9194859165262</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>308.9833029886194</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>308.9833029886194</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>308.9833029886194</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>308.9833029886194</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>308.9833029886194</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
         <v>53.94298182036445</v>
@@ -5692,31 +5694,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V19" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W19" t="n">
-        <v>698.7120650600564</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X19" t="n">
-        <v>698.7120650600564</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y19" t="n">
-        <v>477.9194859165262</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1194.175505447095</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C20" t="n">
-        <v>825.2129885066831</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D20" t="n">
-        <v>466.9472898999326</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E20" t="n">
-        <v>81.15903730168839</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>81.15903730168839</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>81.15903730168839</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5750,19 +5752,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5774,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W20" t="n">
-        <v>2344.380435748108</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X20" t="n">
-        <v>1970.914677487028</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y20" t="n">
-        <v>1580.775345511217</v>
+        <v>1251.855211652197</v>
       </c>
     </row>
     <row r="21">
@@ -5829,31 +5831,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>773.5003462121382</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M21" t="n">
-        <v>1297.647259770169</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1851.37379586972</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2291.509718890064</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
         <v>2488.762748073964</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>500.1394333084169</v>
+        <v>64.48784383890961</v>
       </c>
       <c r="C22" t="n">
-        <v>500.1394333084169</v>
+        <v>64.48784383890961</v>
       </c>
       <c r="D22" t="n">
-        <v>500.1394333084169</v>
+        <v>64.48784383890961</v>
       </c>
       <c r="E22" t="n">
-        <v>500.1394333084169</v>
+        <v>64.48784383890961</v>
       </c>
       <c r="F22" t="n">
-        <v>353.2494858105065</v>
+        <v>64.48784383890961</v>
       </c>
       <c r="G22" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
         <v>53.94298182036445</v>
@@ -5914,46 +5916,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="X22" t="n">
-        <v>500.1394333084169</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="Y22" t="n">
-        <v>500.1394333084169</v>
+        <v>246.1363086691493</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>808.0839286340174</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C23" t="n">
-        <v>808.0839286340174</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D23" t="n">
-        <v>808.0839286340174</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E23" t="n">
-        <v>422.2956760357732</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F23" t="n">
-        <v>422.2956760357732</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036445</v>
@@ -5987,19 +5989,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6023,16 +6025,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V23" t="n">
-        <v>2311.057514205145</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W23" t="n">
-        <v>1958.288858935031</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X23" t="n">
-        <v>1584.823100673951</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y23" t="n">
-        <v>1194.683768698139</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="24">
@@ -6048,34 +6050,34 @@
         <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2191.89927156006</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018222</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V25" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W25" t="n">
-        <v>2407.731920981262</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X25" t="n">
-        <v>2407.731920981262</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>2191.89927156006</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1717.15289212512</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C26" t="n">
-        <v>1717.15289212512</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D26" t="n">
-        <v>1358.887193518369</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E26" t="n">
-        <v>973.098940920125</v>
+        <v>737.1647017090468</v>
       </c>
       <c r="F26" t="n">
-        <v>562.1130361305175</v>
+        <v>326.1787969194392</v>
       </c>
       <c r="G26" t="n">
-        <v>144.1492280287043</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
-        <v>144.1492280287043</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W26" t="n">
-        <v>2090.6186503862</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X26" t="n">
-        <v>1717.15289212512</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y26" t="n">
-        <v>1717.15289212512</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="27">
@@ -6300,46 +6302,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>2639.69255578776</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>2425.404132605923</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>2425.404132605923</v>
+        <v>598.044640063212</v>
       </c>
       <c r="U28" t="n">
-        <v>2425.404132605923</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V28" t="n">
-        <v>2425.404132605923</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W28" t="n">
-        <v>2425.404132605923</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X28" t="n">
-        <v>2425.404132605923</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y28" t="n">
-        <v>2204.611553462393</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1208.982837814967</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C29" t="n">
-        <v>1208.982837814967</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D29" t="n">
-        <v>850.7171392082163</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E29" t="n">
-        <v>464.928886609972</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036446</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W29" t="n">
-        <v>2359.18776811598</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X29" t="n">
-        <v>1985.7220098549</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y29" t="n">
-        <v>1595.582677879089</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6539,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6546,10 +6548,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2334.714009270569</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C31" t="n">
-        <v>2334.714009270569</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D31" t="n">
-        <v>2334.714009270569</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E31" t="n">
-        <v>2334.714009270569</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F31" t="n">
-        <v>2334.714009270569</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G31" t="n">
-        <v>2165.714209008902</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H31" t="n">
         <v>2022.963088632153</v>
@@ -6625,46 +6627,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R31" t="n">
-        <v>2549.002432452407</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S31" t="n">
-        <v>2334.714009270569</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T31" t="n">
-        <v>2334.714009270569</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="U31" t="n">
-        <v>2334.714009270569</v>
+        <v>2277.64757683804</v>
       </c>
       <c r="V31" t="n">
-        <v>2334.714009270569</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W31" t="n">
-        <v>2334.714009270569</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X31" t="n">
-        <v>2334.714009270569</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y31" t="n">
-        <v>2334.714009270569</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1546.944160717209</v>
+        <v>1701.775251950352</v>
       </c>
       <c r="C32" t="n">
-        <v>1177.981643776797</v>
+        <v>1701.775251950352</v>
       </c>
       <c r="D32" t="n">
-        <v>819.715945170047</v>
+        <v>1343.509553343601</v>
       </c>
       <c r="E32" t="n">
-        <v>433.9276925718028</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F32" t="n">
-        <v>433.9276925718028</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
         <v>53.94298182036445</v>
@@ -6698,13 +6700,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6728,22 +6730,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X32" t="n">
-        <v>2323.683332757143</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="Y32" t="n">
-        <v>1933.544000781331</v>
+        <v>2088.375092014473</v>
       </c>
     </row>
     <row r="33">
@@ -6759,10 +6761,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
         <v>359.3385232961342</v>
@@ -6771,31 +6773,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204941</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U34" t="n">
-        <v>2567.064746875</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V34" t="n">
-        <v>2312.380258669114</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W34" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1546.944160717209</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C35" t="n">
-        <v>1177.981643776797</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D35" t="n">
-        <v>1177.981643776797</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E35" t="n">
-        <v>792.1933911785532</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>381.2074863889456</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036445</v>
@@ -6935,13 +6937,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6959,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>2391.363323619549</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.683332757143</v>
+        <v>2017.897565358469</v>
       </c>
       <c r="Y35" t="n">
-        <v>1933.544000781331</v>
+        <v>1627.758233382657</v>
       </c>
     </row>
     <row r="36">
@@ -6990,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204941</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>509.3247150619588</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>340.388532134052</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I37" t="n">
         <v>53.94298182036445</v>
@@ -7099,46 +7101,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V37" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W37" t="n">
-        <v>184.0273259635867</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X37" t="n">
-        <v>184.0273259635867</v>
+        <v>690.9731798921986</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>690.9731798921986</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1920.409918978289</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C38" t="n">
-        <v>1551.447402037877</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.68094731003</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E38" t="n">
         <v>882.8926947117852</v>
@@ -7172,13 +7174,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7196,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2381.363038962244</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2381.363038962244</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018222</v>
+        <v>2028.59438369213</v>
       </c>
       <c r="X38" t="n">
-        <v>2697.149091018222</v>
+        <v>2028.59438369213</v>
       </c>
       <c r="Y38" t="n">
-        <v>2307.009759042411</v>
+        <v>1638.455051716319</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J39" t="n">
         <v>53.94298182036445</v>
@@ -7263,7 +7265,7 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
         <v>2188.831293537797</v>
@@ -7272,22 +7274,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2022.963088632153</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="C40" t="n">
-        <v>2022.963088632153</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="D40" t="n">
-        <v>2022.963088632153</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632153</v>
+        <v>2349.71126146129</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632153</v>
+        <v>2349.71126146129</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632153</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="H40" t="n">
         <v>2022.963088632153</v>
@@ -7357,25 +7359,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018222</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="T40" t="n">
-        <v>2567.064746875</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="U40" t="n">
-        <v>2567.064746875</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="V40" t="n">
-        <v>2312.380258669114</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="W40" t="n">
-        <v>2022.963088632153</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="X40" t="n">
-        <v>2022.963088632153</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="Y40" t="n">
-        <v>2022.963088632153</v>
+        <v>2482.860667836385</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.944160717209</v>
+        <v>934.637173372437</v>
       </c>
       <c r="C41" t="n">
-        <v>1546.944160717209</v>
+        <v>565.6746564320254</v>
       </c>
       <c r="D41" t="n">
-        <v>1268.68094731003</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
@@ -7412,10 +7414,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7433,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757143</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.544000781331</v>
+        <v>934.637173372437</v>
       </c>
     </row>
     <row r="42">
@@ -7464,67 +7466,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204941</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7543,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2022.963088632153</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="C43" t="n">
-        <v>2022.963088632153</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="D43" t="n">
-        <v>2022.963088632153</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="E43" t="n">
         <v>2022.963088632153</v>
@@ -7594,25 +7596,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S43" t="n">
-        <v>2482.860667836385</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T43" t="n">
-        <v>2255.552480504987</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U43" t="n">
-        <v>2255.552480504987</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V43" t="n">
-        <v>2255.552480504987</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W43" t="n">
-        <v>2255.552480504987</v>
+        <v>2619.658312256093</v>
       </c>
       <c r="X43" t="n">
-        <v>2027.562929606969</v>
+        <v>2391.668761358076</v>
       </c>
       <c r="Y43" t="n">
-        <v>2027.562929606969</v>
+        <v>2170.876182214546</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1579.049931616194</v>
+        <v>1199.13500546934</v>
       </c>
       <c r="C44" t="n">
-        <v>1210.087414675782</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D44" t="n">
-        <v>1210.087414675782</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E44" t="n">
-        <v>1210.087414675782</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F44" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036445</v>
@@ -7646,19 +7648,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7673,25 +7675,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548716</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.654643287636</v>
+        <v>1199.13500546934</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.515311311824</v>
+        <v>1199.13500546934</v>
       </c>
     </row>
     <row r="45">
@@ -7728,13 +7730,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
         <v>1748.695370517453</v>
@@ -7780,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>409.5384547146241</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C46" t="n">
-        <v>409.5384547146241</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D46" t="n">
         <v>348.7460229006679</v>
@@ -7825,31 +7827,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>698.7120650600561</v>
+        <v>637.9196332460999</v>
       </c>
       <c r="U46" t="n">
-        <v>409.5384547146241</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="V46" t="n">
-        <v>409.5384547146241</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="W46" t="n">
-        <v>409.5384547146241</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X46" t="n">
-        <v>409.5384547146241</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y46" t="n">
-        <v>409.5384547146241</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451752</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747125</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,13 +10442,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -22553,7 +22555,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>26.884991372586</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22592,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>95.27892931145828</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22671,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22784,16 +22786,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>164.3604017932786</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>362.643716491642</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22829,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22914,7 +22916,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22960,10 +22962,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>96.5672750069272</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -22996,7 +22998,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>338.7761146022507</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>47.41997957426331</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23151,7 +23153,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23182,13 +23184,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>86.05160619575685</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -23197,10 +23199,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>82.85718120047571</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,7 +23223,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -23261,16 +23263,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>37.74728150147314</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23315,16 +23317,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6037244977529781</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23422,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890127</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23458,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -23495,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>318.686425881683</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,16 +23548,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>47.41997957426344</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23695,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>231.8063182229441</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23729,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23777,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>182.5914898744333</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>301.6179050302571</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23905,10 +23907,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>38.64659267756103</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
         <v>45.19995918853699</v>
@@ -23932,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801578</v>
@@ -23950,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>63.3731647155137</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23966,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>296.9788778378464</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24014,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
@@ -24035,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>119.7115032210115</v>
       </c>
     </row>
     <row r="21">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,19 +24138,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>27.16725215060546</v>
+        <v>156.8703888606912</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,25 +24174,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24206,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24215,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>49.11500274754036</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24263,10 +24265,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24385,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>21.8741453697219</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.91033042510486</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>144.270713072711</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>62.62713249860478</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24497,19 +24499,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24622,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>89.78322210200037</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>96.25160475629406</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24680,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24740,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>14.65925904419294</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24850,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>14.84727966881411</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24917,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>249.8424527911211</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>37.59930637687103</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24962,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
@@ -24980,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9289676594879</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25096,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25129,19 +25131,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>157.4983735401879</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25154,19 +25156,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
@@ -25214,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>317.4397819251961</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25330,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25369,16 +25371,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>188.9254091179436</v>
       </c>
       <c r="Y37" t="n">
-        <v>89.80115265030472</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25394,10 +25396,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>74.74425144011371</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25436,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>209.5226989053407</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25555,22 +25557,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>14.61605033522542</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>96.2516047562944</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>79.2024603475752</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>384.6420713024733</v>
       </c>
     </row>
     <row r="42">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>175.2781376168689</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25792,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25807,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -25846,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>209.8071273620832</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>86.26311576480691</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>43.80866606469613</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26026,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>88.43096552239575</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26065,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26074,7 +26076,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>135.7278480073533</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.155540182</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>737339.1555401824</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.155540182</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.155540182</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.155540182</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>737339.155540182</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>737339.155540182</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
   </sheetData>
@@ -26314,13 +26316,13 @@
         <v>274694.9795149697</v>
       </c>
       <c r="C2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="D2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="E2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="F2" t="n">
         <v>274694.9795149697</v>
@@ -26332,7 +26334,7 @@
         <v>274694.9795149697</v>
       </c>
       <c r="I2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149695</v>
       </c>
       <c r="J2" t="n">
         <v>274694.9795149697</v>
@@ -26341,19 +26343,19 @@
         <v>274694.9795149697</v>
       </c>
       <c r="L2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="M2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="N2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="O2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="P2" t="n">
         <v>274694.9795149698</v>
-      </c>
-      <c r="O2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="P2" t="n">
-        <v>274694.9795149697</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597034</v>
       </c>
       <c r="C4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597034</v>
       </c>
       <c r="D4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597034</v>
       </c>
       <c r="E4" t="n">
         <v>513.1084990597035</v>
@@ -26448,7 +26450,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="M4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="N4" t="n">
         <v>513.1084990597035</v>
@@ -26491,10 +26493,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="K5" t="n">
         <v>49231.47806340946</v>
-      </c>
-      <c r="K5" t="n">
-        <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-398645.0862620438</v>
+        <v>-398645.0862620437</v>
       </c>
       <c r="C6" t="n">
-        <v>191322.7929525007</v>
+        <v>191322.7929525005</v>
       </c>
       <c r="D6" t="n">
-        <v>191322.7929525005</v>
+        <v>191322.7929525006</v>
       </c>
       <c r="E6" t="n">
-        <v>224950.3929525005</v>
+        <v>224950.3929525007</v>
       </c>
       <c r="F6" t="n">
         <v>224950.3929525006</v>
       </c>
       <c r="G6" t="n">
-        <v>224950.3929525004</v>
+        <v>224950.3929525005</v>
       </c>
       <c r="H6" t="n">
         <v>224950.3929525006</v>
       </c>
       <c r="I6" t="n">
-        <v>224950.3929525005</v>
+        <v>224950.3929525004</v>
       </c>
       <c r="J6" t="n">
-        <v>48527.17375990763</v>
+        <v>48527.17375990762</v>
       </c>
       <c r="K6" t="n">
         <v>224950.3929525006</v>
       </c>
       <c r="L6" t="n">
-        <v>224950.3929525004</v>
+        <v>224950.3929525007</v>
       </c>
       <c r="M6" t="n">
-        <v>224950.3929525004</v>
+        <v>224950.3929525006</v>
       </c>
       <c r="N6" t="n">
         <v>224950.3929525007</v>
       </c>
       <c r="O6" t="n">
-        <v>224950.3929525006</v>
+        <v>224950.3929525007</v>
       </c>
       <c r="P6" t="n">
-        <v>224950.3929525006</v>
+        <v>224950.3929525007</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26753,28 +26755,28 @@
         <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
         <v>377.7436642170866</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26811,10 +26813,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="K4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="K4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31276,16 +31278,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K5" t="n">
         <v>193.1674799081577</v>
@@ -31297,25 +31299,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,31 +31357,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
-        <v>56.98116194942315</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,16 +31515,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,25 +31536,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>167.900586832999</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31774,22 +31776,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>35.71704454958012</v>
+        <v>111.734380307287</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,13 +31934,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31947,7 +31949,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -32096,7 +32098,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>60.29709682323596</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
         <v>50.44659727034981</v>
@@ -32467,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32494,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L21" t="n">
-        <v>160.6967431133295</v>
+        <v>132.9984977071302</v>
       </c>
       <c r="M21" t="n">
         <v>205.8702969983122</v>
@@ -32567,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32643,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32704,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L24" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942293</v>
       </c>
       <c r="M24" t="n">
         <v>205.8702969983122</v>
@@ -32804,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33041,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>111.734380307287</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33272,28 +33274,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N30" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O30" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33415,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081573</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33442,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33591,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33652,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33679,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33743,7 +33745,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M36" t="n">
-        <v>205.8702969983122</v>
+        <v>190.1500580638411</v>
       </c>
       <c r="N36" t="n">
         <v>211.31907117367</v>
@@ -33752,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33828,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33889,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630665</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33916,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33983,28 +33985,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N39" t="n">
-        <v>167.9005868329995</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O39" t="n">
-        <v>193.3156655923047</v>
+        <v>149.8971812516336</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34065,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34126,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34153,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34220,28 +34222,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N42" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O42" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34457,7 +34459,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N45" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O45" t="n">
         <v>193.3156655923047</v>
@@ -34787,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245897</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,13 +35096,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35422,10 +35424,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35501,10 +35503,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
-        <v>220.205405775187</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35568,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35981,7 +35983,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>392.9827086369145</v>
+        <v>365.2844632307152</v>
       </c>
       <c r="M21" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36683,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37066,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343415</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37157,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37391,19 +37393,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
-        <v>529.4413268262938</v>
+        <v>513.7210878918227</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535667</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435297</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37631,13 +37633,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37777,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37868,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38105,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
